--- a/database.xlsx
+++ b/database.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\siadm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\siadem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="DB Model" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Cookies" sheetId="2" r:id="rId2"/>
+    <sheet name="Pegawai" sheetId="3" r:id="rId3"/>
+    <sheet name="Pegawai Luar" sheetId="4" r:id="rId4"/>
+    <sheet name="Lainnya" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>variabel</t>
   </si>
@@ -76,6 +79,102 @@
   </si>
   <si>
     <t>type: String</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>[{gol: String, tmt: Date}]</t>
+  </si>
+  <si>
+    <t>pangkat</t>
+  </si>
+  <si>
+    <t>[{gol: Nama, tmt: Date}]</t>
+  </si>
+  <si>
+    <t>nip</t>
+  </si>
+  <si>
+    <t>{lama: String, baru: String}</t>
+  </si>
+  <si>
+    <t>gelar</t>
+  </si>
+  <si>
+    <t>[{depan: String, belakang: String, tmt: Date}]</t>
+  </si>
+  <si>
+    <t>jabatan</t>
+  </si>
+  <si>
+    <t>{tahun: Number, bulan: Number}</t>
+  </si>
+  <si>
+    <t>latihan_jabatan</t>
+  </si>
+  <si>
+    <t>masa_kerja</t>
+  </si>
+  <si>
+    <t>[{nama: String, tahun: Number, jumlah_jam: Number}]</t>
+  </si>
+  <si>
+    <t>pendidikan</t>
+  </si>
+  <si>
+    <t>[{nama: String, pt: String, lulus_tahun: Number, ijazah: String}]</t>
+  </si>
+  <si>
+    <t>ttl</t>
+  </si>
+  <si>
+    <t>{tempat_lahir: String, tgl_lahir: Date, BUP: Number, pensiun: Date}</t>
+  </si>
+  <si>
+    <t>angka_kredit</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>nomor_karpeg</t>
+  </si>
+  <si>
+    <t>proyeksi_pangkat_jabatan</t>
+  </si>
+  <si>
+    <t>periode_kgb</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>dosen</t>
+  </si>
+  <si>
+    <t>{nupn: String, nidn: String, sertifikasi: Number}</t>
+  </si>
+  <si>
+    <t>penghargaan</t>
+  </si>
+  <si>
+    <t>[{jenis_penghargaan: String, tahun: Number}]</t>
+  </si>
+  <si>
+    <t>hukuman_disiplin</t>
+  </si>
+  <si>
+    <t>[{jenis_hukuman: String, tmt: Date}]</t>
+  </si>
+  <si>
+    <t>nomor_telp</t>
+  </si>
+  <si>
+    <t>alamat_lengkap</t>
+  </si>
+  <si>
+    <t>jk</t>
   </si>
 </sst>
 </file>
@@ -402,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +568,7 @@
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,4 +597,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>